--- a/Documents/QuestionBank/7/7_Integers.xlsx
+++ b/Documents/QuestionBank/7/7_Integers.xlsx
@@ -197,7 +197,7 @@
     <t>I_7</t>
   </si>
   <si>
-    <t>What is the opposite of the integer \(7\)?</t>
+    <t>what  is the additive inverse of 7</t>
   </si>
   <si>
     <t>-7</t>
@@ -422,7 +422,7 @@
     <t>I_21</t>
   </si>
   <si>
-    <t>If \(-x\) is greater than \(y\), which of the following is true? Assume \(x\) and \(y\) are positive integers.</t>
+    <t>If\( -x\) is   greater than \(-y\), which of the following is true? Assume \(x\) and \(y\) are positive integers.</t>
   </si>
   <si>
     <t>\(x &gt; y\)</t>
